--- a/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Cox.2G.MODEL1.90days.xlsx
+++ b/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Cox.2G.MODEL1.90days.xlsx
@@ -405,7 +405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -456,7 +456,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.469223974023236</v>
+        <v>0.469223974023237</v>
       </c>
       <c r="E2" t="n">
         <v>0.317545632068206</v>
@@ -474,7 +474,7 @@
         <v>1.47765841075229</v>
       </c>
       <c r="J2" t="n">
-        <v>0.139499231506127</v>
+        <v>0.139499231506126</v>
       </c>
       <c r="K2" t="n">
         <v>1187</v>
@@ -494,16 +494,16 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.518633301264703</v>
+        <v>-0.518633301264702</v>
       </c>
       <c r="E3" t="n">
         <v>0.459923980271988</v>
       </c>
       <c r="F3" t="n">
-        <v>0.59533363394644</v>
+        <v>0.595333633946441</v>
       </c>
       <c r="G3" t="n">
-        <v>0.241693640636385</v>
+        <v>0.241693640636386</v>
       </c>
       <c r="H3" t="n">
         <v>1.4664106791336</v>
@@ -512,7 +512,7 @@
         <v>-1.12765005416329</v>
       </c>
       <c r="J3" t="n">
-        <v>0.25946773870844</v>
+        <v>0.259467738708441</v>
       </c>
       <c r="K3" t="n">
         <v>549</v>
@@ -550,7 +550,7 @@
         <v>1.61155794052139</v>
       </c>
       <c r="J4" t="n">
-        <v>0.107058169361738</v>
+        <v>0.107058169361739</v>
       </c>
       <c r="K4" t="n">
         <v>1187</v>
@@ -620,10 +620,10 @@
         <v>0.599443214116463</v>
       </c>
       <c r="H6" t="n">
-        <v>5.2224851060899</v>
+        <v>5.22248510608991</v>
       </c>
       <c r="I6" t="n">
-        <v>1.03328940923312</v>
+        <v>1.03328940923311</v>
       </c>
       <c r="J6" t="n">
         <v>0.30146848200086</v>
@@ -649,7 +649,7 @@
         <v>-0.423836073948647</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7911633994651</v>
+        <v>0.791163399465098</v>
       </c>
       <c r="F7" t="n">
         <v>0.654531167824969</v>
@@ -658,13 +658,13 @@
         <v>0.138828442202195</v>
       </c>
       <c r="H7" t="n">
-        <v>3.08590259213861</v>
+        <v>3.0859025921386</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.535712438461131</v>
+        <v>-0.535712438461133</v>
       </c>
       <c r="J7" t="n">
-        <v>0.592157305781767</v>
+        <v>0.592157305781766</v>
       </c>
       <c r="K7" t="n">
         <v>549</v>
@@ -687,10 +687,10 @@
         <v>-1.44130363473526</v>
       </c>
       <c r="E8" t="n">
-        <v>0.86956744939769</v>
+        <v>0.869567449397691</v>
       </c>
       <c r="F8" t="n">
-        <v>0.236619092663742</v>
+        <v>0.236619092663743</v>
       </c>
       <c r="G8" t="n">
         <v>0.0430386884867623</v>
@@ -702,7 +702,7 @@
         <v>-1.6574949254754</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0974194539812248</v>
+        <v>0.0974194539812244</v>
       </c>
       <c r="K8" t="n">
         <v>1187</v>
@@ -722,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.552863656773941</v>
+        <v>-0.552863656773942</v>
       </c>
       <c r="E9" t="n">
         <v>1.22707134748778</v>
@@ -734,13 +734,13 @@
         <v>0.0519266310610022</v>
       </c>
       <c r="H9" t="n">
-        <v>6.37380220705757</v>
+        <v>6.37380220705755</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.450555428505306</v>
+        <v>-0.450555428505307</v>
       </c>
       <c r="J9" t="n">
-        <v>0.652309996738783</v>
+        <v>0.652309996738782</v>
       </c>
       <c r="K9" t="n">
         <v>549</v>
